--- a/Prestamos 2.0/calculadora prestamo.xlsx
+++ b/Prestamos 2.0/calculadora prestamo.xlsx
@@ -615,7 +615,7 @@
   <dimension ref="B2:K13"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -680,7 +680,7 @@
         <v>5</v>
       </c>
       <c r="C5" s="6">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D5" s="4"/>
       <c r="I5" s="22" t="s">
@@ -722,7 +722,7 @@
       </c>
       <c r="C7" s="6">
         <f>C5/D6</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D7" s="12" t="s">
         <v>8</v>
@@ -751,17 +751,17 @@
       </c>
       <c r="C10" s="19">
         <f>C3/C5</f>
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="D10" s="20">
         <f>B10+C10</f>
-        <v>1500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="11" spans="2:11" ht="15.75" thickBot="1">
       <c r="B11" s="14">
         <f>B10*C5</f>
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="C11" s="15">
         <f>C10*C5</f>
@@ -769,7 +769,7 @@
       </c>
       <c r="D11" s="16">
         <f>D10*C5</f>
-        <v>15000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="13" spans="2:11">

--- a/Prestamos 2.0/calculadora prestamo.xlsx
+++ b/Prestamos 2.0/calculadora prestamo.xlsx
@@ -69,7 +69,7 @@
     <t>articulo</t>
   </si>
   <si>
-    <t>q</t>
+    <t>s</t>
   </si>
 </sst>
 </file>
@@ -121,7 +121,7 @@
     </font>
     <font>
       <sz val="6"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -296,9 +296,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -332,6 +329,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -615,7 +615,7 @@
   <dimension ref="B2:K13"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -629,13 +629,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="15.75" thickBot="1">
-      <c r="I2" s="26" t="s">
+      <c r="I2" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="27" t="s">
+      <c r="J2" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="27" t="s">
+      <c r="K2" s="26" t="s">
         <v>14</v>
       </c>
     </row>
@@ -643,17 +643,17 @@
       <c r="B3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="17">
-        <v>10000</v>
+      <c r="C3" s="16">
+        <v>5000</v>
       </c>
       <c r="D3" s="2"/>
-      <c r="I3" s="21" t="s">
+      <c r="I3" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="23">
+      <c r="J3" s="22">
         <v>7500</v>
       </c>
-      <c r="K3" s="23">
+      <c r="K3" s="22">
         <v>11250</v>
       </c>
     </row>
@@ -665,13 +665,13 @@
         <v>10</v>
       </c>
       <c r="D4" s="4"/>
-      <c r="I4" s="21" t="s">
+      <c r="I4" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="23">
+      <c r="J4" s="22">
         <v>7500</v>
       </c>
-      <c r="K4" s="23">
+      <c r="K4" s="22">
         <v>11250</v>
       </c>
     </row>
@@ -680,16 +680,16 @@
         <v>5</v>
       </c>
       <c r="C5" s="6">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="D5" s="4"/>
-      <c r="I5" s="22" t="s">
+      <c r="I5" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="24">
+      <c r="J5" s="23">
         <v>10000</v>
       </c>
-      <c r="K5" s="24">
+      <c r="K5" s="23">
         <v>15000</v>
       </c>
     </row>
@@ -700,18 +700,18 @@
       <c r="C6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="28">
         <f>IF(C6="d",30, IF(C6="s",4,IF(C6="q",2, IF(C6="m",1,0))))</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="25">
+      <c r="J6" s="24">
         <f>SUM(J3:J5)</f>
         <v>25000</v>
       </c>
-      <c r="K6" s="25">
+      <c r="K6" s="24">
         <f>SUM(K3:K5)</f>
         <v>37500</v>
       </c>
@@ -722,7 +722,7 @@
       </c>
       <c r="C7" s="6">
         <f>C5/D6</f>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D7" s="12" t="s">
         <v>8</v>
@@ -745,35 +745,35 @@
       </c>
     </row>
     <row r="10" spans="2:11">
-      <c r="B10" s="18">
+      <c r="B10" s="17">
         <f>C3*(C4/100/D6)</f>
+        <v>125</v>
+      </c>
+      <c r="C10" s="18">
+        <f>C3/C5</f>
+        <v>1250</v>
+      </c>
+      <c r="D10" s="19">
+        <f>B10+C10</f>
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" ht="15.75" thickBot="1">
+      <c r="B11" s="13">
+        <f>B10*C5</f>
         <v>500</v>
       </c>
-      <c r="C10" s="19">
-        <f>C3/C5</f>
-        <v>500</v>
-      </c>
-      <c r="D10" s="20">
-        <f>B10+C10</f>
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B11" s="14">
-        <f>B10*C5</f>
-        <v>10000</v>
-      </c>
-      <c r="C11" s="15">
+      <c r="C11" s="14">
         <f>C10*C5</f>
-        <v>10000</v>
-      </c>
-      <c r="D11" s="16">
+        <v>5000</v>
+      </c>
+      <c r="D11" s="15">
         <f>D10*C5</f>
-        <v>20000</v>
+        <v>5500</v>
       </c>
     </row>
     <row r="13" spans="2:11">
-      <c r="G13" s="28"/>
+      <c r="G13" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
